--- a/Code/Results/Cases/Case_2_166/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_166/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.13874307352519</v>
+        <v>10.73888328386894</v>
       </c>
       <c r="C2">
-        <v>12.98644355738653</v>
+        <v>8.185796483737697</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.46970960292024</v>
+        <v>12.07696957496907</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>2.05522322764376</v>
+        <v>3.595917274550334</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10.30533527120909</v>
+        <v>16.94453677806763</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.14299639158511</v>
+        <v>13.93742979277052</v>
       </c>
       <c r="N2">
-        <v>11.17073065484209</v>
+        <v>16.24575604260859</v>
       </c>
       <c r="O2">
-        <v>12.56088553480808</v>
+        <v>17.65193695639881</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.98767449653606</v>
+        <v>10.18977078708362</v>
       </c>
       <c r="C3">
-        <v>12.22107297274243</v>
+        <v>7.795986312625922</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.78795694530722</v>
+        <v>11.95620324643995</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>2.060312440793596</v>
+        <v>3.597831346401437</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>10.45366413672256</v>
+        <v>17.04296267437787</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.0360188325027</v>
+        <v>13.66519876601906</v>
       </c>
       <c r="N3">
-        <v>11.2978458598794</v>
+        <v>16.29171703176359</v>
       </c>
       <c r="O3">
-        <v>12.34343678723206</v>
+        <v>17.69623411241293</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.2403807673543</v>
+        <v>9.837655821444349</v>
       </c>
       <c r="C4">
-        <v>11.7264096790538</v>
+        <v>7.544848478787079</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.36329393581591</v>
+        <v>11.88610524284747</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>2.063529959288942</v>
+        <v>3.599068650462961</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>10.55781373673988</v>
+        <v>17.10775544134084</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.31969333558856</v>
+        <v>13.49842400350246</v>
       </c>
       <c r="N4">
-        <v>11.37948340058642</v>
+        <v>16.3217386887834</v>
       </c>
       <c r="O4">
-        <v>12.22470837451488</v>
+        <v>17.72895354930095</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.92565437510883</v>
+        <v>9.690562912939214</v>
       </c>
       <c r="C5">
-        <v>11.51865612224807</v>
+        <v>7.439615747037998</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.18892603727251</v>
+        <v>11.85859071970586</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>2.064865076443127</v>
+        <v>3.599588516392122</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>10.60334306383464</v>
+        <v>17.13525250457576</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.01853983304141</v>
+        <v>13.43065306264174</v>
       </c>
       <c r="N5">
-        <v>11.41364254524499</v>
+        <v>16.33442654168298</v>
       </c>
       <c r="O5">
-        <v>12.17997071585876</v>
+        <v>17.74366893412532</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.87277845064641</v>
+        <v>9.665925792904549</v>
       </c>
       <c r="C6">
-        <v>11.48378750056501</v>
+        <v>7.421969661748911</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.15989995858705</v>
+        <v>11.854086308848</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>2.065088236331619</v>
+        <v>3.599675786694422</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>10.61108405142327</v>
+        <v>17.13988434040085</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.9679744519786</v>
+        <v>13.41941414192501</v>
       </c>
       <c r="N6">
-        <v>11.41936817357947</v>
+        <v>16.33656078128115</v>
       </c>
       <c r="O6">
-        <v>12.17275977318857</v>
+        <v>17.74619568484928</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.23617754720785</v>
+        <v>9.835686435006572</v>
       </c>
       <c r="C7">
-        <v>11.72363277170429</v>
+        <v>7.543440876606029</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.36094736237288</v>
+        <v>11.88572987690027</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>2.063547867343357</v>
+        <v>3.599075598105989</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10.5584155148649</v>
+        <v>17.1081218522671</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.31566934068481</v>
+        <v>13.49750911843052</v>
       </c>
       <c r="N7">
-        <v>11.37994048797198</v>
+        <v>16.32190796318586</v>
       </c>
       <c r="O7">
-        <v>12.22409037591915</v>
+        <v>17.7291464193987</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.75025968875929</v>
+        <v>10.55274025339237</v>
       </c>
       <c r="C8">
-        <v>12.72769488131181</v>
+        <v>8.053877671184217</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.23601353908025</v>
+        <v>12.0345080255022</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>2.056959137674325</v>
+        <v>3.596564396875527</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10.35364068345834</v>
+        <v>16.97756777318229</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.76889099967383</v>
+        <v>13.84354386863648</v>
       </c>
       <c r="N8">
-        <v>11.2138080781608</v>
+        <v>16.26122998501796</v>
       </c>
       <c r="O8">
-        <v>12.48280141911421</v>
+        <v>17.6660611332669</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.39868008261917</v>
+        <v>11.83454855048406</v>
       </c>
       <c r="C9">
-        <v>14.49951271500575</v>
+        <v>8.958655810235994</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.89675587532105</v>
+        <v>12.35689947845454</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.044743787260386</v>
+        <v>3.592130045971353</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>10.06548644656932</v>
+        <v>16.75625477312876</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.33007039358661</v>
+        <v>14.52095751544048</v>
       </c>
       <c r="N9">
-        <v>10.91707279919755</v>
+        <v>16.15649845815053</v>
       </c>
       <c r="O9">
-        <v>13.10992510426784</v>
+        <v>17.5864153633648</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.15101047161043</v>
+        <v>12.6944540515292</v>
       </c>
       <c r="C10">
-        <v>15.68082034391999</v>
+        <v>9.561975194110911</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.22719093875635</v>
+        <v>12.61025272208073</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.036153597227884</v>
+        <v>3.589167714531277</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>9.937157091191764</v>
+        <v>16.61497576221922</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.03956443534081</v>
+        <v>15.01258886047631</v>
       </c>
       <c r="N10">
-        <v>10.71770512201869</v>
+        <v>16.08819545042464</v>
       </c>
       <c r="O10">
-        <v>13.64612062784753</v>
+        <v>17.55508224728538</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.90679198552426</v>
+        <v>13.06696005830244</v>
       </c>
       <c r="C11">
-        <v>16.19226300583417</v>
+        <v>9.822685844207601</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.83915651673743</v>
+        <v>12.72859283938438</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.032318340446378</v>
+        <v>3.587883576663899</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>9.900209621159192</v>
+        <v>16.55537042917009</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.78086599783081</v>
+        <v>15.23386393827855</v>
       </c>
       <c r="N11">
-        <v>10.63130732707525</v>
+        <v>16.0589894622626</v>
       </c>
       <c r="O11">
-        <v>13.90672506195963</v>
+        <v>17.54678653307923</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.18709648082114</v>
+        <v>13.20527584633053</v>
       </c>
       <c r="C12">
-        <v>16.38222998222592</v>
+        <v>9.919407761494504</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>16.06774800302565</v>
+        <v>12.7738061135652</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.030875485570334</v>
+        <v>3.587406378324558</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>9.88958942718722</v>
+        <v>16.53347328202302</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.05644240657541</v>
+        <v>15.31723125611906</v>
       </c>
       <c r="N12">
-        <v>10.59923355169142</v>
+        <v>16.04819743931175</v>
       </c>
       <c r="O12">
-        <v>14.00782168003492</v>
+        <v>17.54450543360879</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.12698907743918</v>
+        <v>13.1756099388432</v>
       </c>
       <c r="C13">
-        <v>16.3414814991215</v>
+        <v>9.898666451966472</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>16.01865484365441</v>
+        <v>12.76405151700249</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.031185824684719</v>
+        <v>3.587508748560986</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>9.891722056474023</v>
+        <v>16.53815918650622</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.99731910482352</v>
+        <v>15.2992967885568</v>
       </c>
       <c r="N13">
-        <v>10.60611216419954</v>
+        <v>16.05050979986624</v>
       </c>
       <c r="O13">
-        <v>13.98594131006305</v>
+        <v>17.54495839723851</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.92997058705229</v>
+        <v>13.07839467812786</v>
       </c>
       <c r="C14">
-        <v>16.20796578893382</v>
+        <v>9.830683505875783</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15.85802528118456</v>
+        <v>12.73230478921712</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.032199451719052</v>
+        <v>3.587844135618944</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>9.899266644901001</v>
+        <v>16.55355540719393</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.80364027075753</v>
+        <v>15.24073159393054</v>
       </c>
       <c r="N14">
-        <v>10.62865554946571</v>
+        <v>16.05809623522019</v>
       </c>
       <c r="O14">
-        <v>13.91499395692132</v>
+        <v>17.54658160579817</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.80852527798057</v>
+        <v>13.01848858652268</v>
       </c>
       <c r="C15">
-        <v>16.12570191364074</v>
+        <v>9.788780349340804</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>15.75922864091179</v>
+        <v>12.71290984574249</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.032821531980907</v>
+        <v>3.588050750583745</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>9.904335657778022</v>
+        <v>16.56307393089424</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.68434003345281</v>
+        <v>15.20480099738649</v>
       </c>
       <c r="N15">
-        <v>10.64254860174636</v>
+        <v>16.06277798483173</v>
       </c>
       <c r="O15">
-        <v>13.87185098437551</v>
+        <v>17.54768799961257</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.10079054988143</v>
+        <v>12.66972887343195</v>
       </c>
       <c r="C16">
-        <v>15.64687631048124</v>
+        <v>9.54465813491357</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.18675114465825</v>
+        <v>12.60257734426995</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.036405619122368</v>
+        <v>3.589252908625676</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>9.940027464303574</v>
+        <v>16.61896524677548</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.99039450670186</v>
+        <v>14.99807303595482</v>
       </c>
       <c r="N16">
-        <v>10.72343996200027</v>
+        <v>16.09014161594659</v>
       </c>
       <c r="O16">
-        <v>13.62942638893856</v>
+        <v>17.55574460040702</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.65606089953186</v>
+        <v>12.45094823049283</v>
       </c>
       <c r="C17">
-        <v>15.34650334552594</v>
+        <v>9.391355968976152</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.82983269909067</v>
+        <v>12.53565207606377</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>2.038622248657531</v>
+        <v>3.590006609699905</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>9.967615056879115</v>
+        <v>16.65444960524914</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.55543061058763</v>
+        <v>14.87058382596899</v>
       </c>
       <c r="N17">
-        <v>10.77418148315048</v>
+        <v>16.10740566220278</v>
       </c>
       <c r="O17">
-        <v>13.48499029189664</v>
+        <v>17.56221577728838</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.39636727552396</v>
+        <v>12.32335687562668</v>
       </c>
       <c r="C18">
-        <v>15.17129308434314</v>
+        <v>9.301888364059019</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.62240670826187</v>
+        <v>12.49745179532529</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>2.039904076664522</v>
+        <v>3.590446092771318</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>9.985481859385025</v>
+        <v>16.67529797506299</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.30182297330246</v>
+        <v>14.79703701026978</v>
       </c>
       <c r="N18">
-        <v>10.80376926231981</v>
+        <v>16.11751109843586</v>
       </c>
       <c r="O18">
-        <v>13.40348472717715</v>
+        <v>17.56649843964932</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.3077686331235</v>
+        <v>12.27985730568351</v>
       </c>
       <c r="C19">
-        <v>15.11154958177348</v>
+        <v>9.271375153941126</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.55180600936146</v>
+        <v>12.48456954312343</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>2.040339291180199</v>
+        <v>3.59059592166172</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>9.99186593573061</v>
+        <v>16.68243211657206</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.21536445944344</v>
+        <v>14.7721004453784</v>
       </c>
       <c r="N19">
-        <v>10.81385559998185</v>
+        <v>16.1209628056473</v>
       </c>
       <c r="O19">
-        <v>13.37615761034555</v>
+        <v>17.56804464130468</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.70380607049088</v>
+        <v>12.47441985771054</v>
       </c>
       <c r="C20">
-        <v>15.37873131885045</v>
+        <v>9.40780920614557</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>14.86804762140051</v>
+        <v>12.54274633771339</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>2.03838557910061</v>
+        <v>3.589925758965716</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>9.96446933742609</v>
+        <v>16.65062680498149</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.60208741575131</v>
+        <v>14.88417849553163</v>
       </c>
       <c r="N20">
-        <v>10.7687381202042</v>
+        <v>16.10554970400806</v>
       </c>
       <c r="O20">
-        <v>13.50020314786371</v>
+        <v>17.56146886008924</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.98799917855298</v>
+        <v>13.10702404920988</v>
       </c>
       <c r="C21">
-        <v>16.24728290791267</v>
+        <v>9.850706311657962</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>15.90529056054685</v>
+        <v>12.74161905547721</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.031901475677173</v>
+        <v>3.587745378333074</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>9.896956781629285</v>
+        <v>16.54901484051337</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.86066713505744</v>
+        <v>15.25794578381964</v>
       </c>
       <c r="N21">
-        <v>10.62201633445042</v>
+        <v>16.05586065588498</v>
       </c>
       <c r="O21">
-        <v>13.9357673909024</v>
+        <v>17.5460814565438</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.79297109753715</v>
+        <v>13.50445262612414</v>
       </c>
       <c r="C22">
-        <v>16.79335203358607</v>
+        <v>10.12847800425811</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>16.56490754218999</v>
+        <v>12.87390740428401</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.027718466622198</v>
+        <v>3.586373258984517</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>9.872621574993351</v>
+        <v>16.48653641245682</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22.65331927997662</v>
+        <v>15.49971301747989</v>
       </c>
       <c r="N22">
-        <v>10.52988854557592</v>
+        <v>16.02494580645992</v>
       </c>
       <c r="O22">
-        <v>14.23449321346776</v>
+        <v>17.54104059582058</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.36646336119358</v>
+        <v>13.293819626311</v>
       </c>
       <c r="C23">
-        <v>16.50386875789262</v>
+        <v>9.981303056013685</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.214491557</v>
+        <v>12.80310547748401</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>2.02994634154891</v>
+        <v>3.587100760997775</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>9.883701563331734</v>
+        <v>16.51952146070727</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.23297002184161</v>
+        <v>15.37093355415427</v>
       </c>
       <c r="N23">
-        <v>10.57870519856112</v>
+        <v>16.04130310952661</v>
       </c>
       <c r="O23">
-        <v>14.07376789024894</v>
+        <v>17.54327106023528</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.68223298116345</v>
+        <v>12.46381397266785</v>
       </c>
       <c r="C24">
-        <v>15.36416890887075</v>
+        <v>9.400374844892776</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.85077760511212</v>
+        <v>12.5395381591626</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.038492554105998</v>
+        <v>3.589962292358873</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>9.965885289767478</v>
+        <v>16.65235369791096</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.58100491053407</v>
+        <v>14.87803312256307</v>
       </c>
       <c r="N24">
-        <v>10.77119777134539</v>
+        <v>16.10638822162515</v>
       </c>
       <c r="O24">
-        <v>13.49332064265782</v>
+        <v>17.56180479008318</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.71636744398368</v>
+        <v>11.50179437025569</v>
       </c>
       <c r="C25">
-        <v>14.04136949523066</v>
+        <v>8.724509085361385</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.4542336655283</v>
+        <v>12.26662275854332</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>2.047977389408362</v>
+        <v>3.593277517731137</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>10.12988153488542</v>
+        <v>16.81239400211089</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.6677514490979</v>
+        <v>14.33838944137122</v>
       </c>
       <c r="N25">
-        <v>10.99414966727377</v>
+        <v>16.18330983130021</v>
       </c>
       <c r="O25">
-        <v>12.92714886078752</v>
+        <v>17.60320891570439</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_166/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_166/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.73888328386894</v>
+        <v>18.1387430735253</v>
       </c>
       <c r="C2">
-        <v>8.185796483737697</v>
+        <v>12.98644355738644</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.07696957496907</v>
+        <v>12.46970960292028</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.595917274550334</v>
+        <v>2.055223227643892</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>16.94453677806763</v>
+        <v>10.30533527120887</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.93742979277052</v>
+        <v>17.14299639158516</v>
       </c>
       <c r="N2">
-        <v>16.24575604260859</v>
+        <v>11.17073065484196</v>
       </c>
       <c r="O2">
-        <v>17.65193695639881</v>
+        <v>12.56088553480792</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.18977078708362</v>
+        <v>16.98767449653613</v>
       </c>
       <c r="C3">
-        <v>7.795986312625922</v>
+        <v>12.22107297274243</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.95620324643995</v>
+        <v>11.78795694530724</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.597831346401437</v>
+        <v>2.06031244079373</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>17.04296267437787</v>
+        <v>10.45366413672235</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.66519876601906</v>
+        <v>16.03601883250272</v>
       </c>
       <c r="N3">
-        <v>16.29171703176359</v>
+        <v>11.29784585987927</v>
       </c>
       <c r="O3">
-        <v>17.69623411241293</v>
+        <v>12.34343678723191</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.837655821444349</v>
+        <v>16.24038076735427</v>
       </c>
       <c r="C4">
-        <v>7.544848478787079</v>
+        <v>11.72640967905386</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.88610524284747</v>
+        <v>11.36329393581593</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.599068650462961</v>
+        <v>2.06352995928921</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>17.10775544134084</v>
+        <v>10.55781373673986</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.49842400350246</v>
+        <v>15.31969333558855</v>
       </c>
       <c r="N4">
-        <v>16.3217386887834</v>
+        <v>11.37948340058639</v>
       </c>
       <c r="O4">
-        <v>17.72895354930095</v>
+        <v>12.22470837451487</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.690562912939214</v>
+        <v>15.92565437510886</v>
       </c>
       <c r="C5">
-        <v>7.439615747037998</v>
+        <v>11.51865612224815</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.85859071970586</v>
+        <v>11.18892603727248</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.599588516392122</v>
+        <v>2.064865076442859</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>17.13525250457576</v>
+        <v>10.60334306383469</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.43065306264174</v>
+        <v>15.01853983304142</v>
       </c>
       <c r="N5">
-        <v>16.33442654168298</v>
+        <v>11.41364254524499</v>
       </c>
       <c r="O5">
-        <v>17.74366893412532</v>
+        <v>12.17997071585884</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.665925792904549</v>
+        <v>15.87277845064637</v>
       </c>
       <c r="C6">
-        <v>7.421969661748911</v>
+        <v>11.48378750056499</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.854086308848</v>
+        <v>11.15989995858702</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.599675786694422</v>
+        <v>2.065088236331619</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>17.13988434040085</v>
+        <v>10.61108405142335</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.41941414192501</v>
+        <v>14.9679744519786</v>
       </c>
       <c r="N6">
-        <v>16.33656078128115</v>
+        <v>11.41936817357946</v>
       </c>
       <c r="O6">
-        <v>17.74619568484928</v>
+        <v>12.17275977318863</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.835686435006572</v>
+        <v>16.23617754720786</v>
       </c>
       <c r="C7">
-        <v>7.543440876606029</v>
+        <v>11.72363277170427</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.88572987690027</v>
+        <v>11.3609473623729</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.599075598105989</v>
+        <v>2.063547867343225</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>17.1081218522671</v>
+        <v>10.55841551486497</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.49750911843052</v>
+        <v>15.31566934068479</v>
       </c>
       <c r="N7">
-        <v>16.32190796318586</v>
+        <v>11.37994048797204</v>
       </c>
       <c r="O7">
-        <v>17.7291464193987</v>
+        <v>12.22409037591923</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.55274025339237</v>
+        <v>17.75025968875928</v>
       </c>
       <c r="C8">
-        <v>8.053877671184217</v>
+        <v>12.72769488131181</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.0345080255022</v>
+        <v>12.23601353908026</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.596564396875527</v>
+        <v>2.056959137674325</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>16.97756777318229</v>
+        <v>10.35364068345833</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.84354386863648</v>
+        <v>16.76889099967381</v>
       </c>
       <c r="N8">
-        <v>16.26122998501796</v>
+        <v>11.21380807816076</v>
       </c>
       <c r="O8">
-        <v>17.6660611332669</v>
+        <v>12.48280141911421</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.83454855048406</v>
+        <v>20.39868008261913</v>
       </c>
       <c r="C9">
-        <v>8.958655810235994</v>
+        <v>14.4995127150056</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.35689947845454</v>
+        <v>13.89675587532105</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.592130045971353</v>
+        <v>2.044743787260654</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>16.75625477312876</v>
+        <v>10.06548644656942</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.52095751544048</v>
+        <v>19.33007039358657</v>
       </c>
       <c r="N9">
-        <v>16.15649845815053</v>
+        <v>10.91707279919761</v>
       </c>
       <c r="O9">
-        <v>17.5864153633648</v>
+        <v>13.10992510426793</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.6944540515292</v>
+        <v>22.15101047161051</v>
       </c>
       <c r="C10">
-        <v>9.561975194110911</v>
+        <v>15.68082034392008</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.61025272208073</v>
+        <v>15.22719093875635</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.589167714531277</v>
+        <v>2.036153597228018</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.61497576221922</v>
+        <v>9.937157091191743</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.01258886047631</v>
+        <v>21.03956443534084</v>
       </c>
       <c r="N10">
-        <v>16.08819545042464</v>
+        <v>10.71770512201868</v>
       </c>
       <c r="O10">
-        <v>17.55508224728538</v>
+        <v>13.64612062784751</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.06696005830244</v>
+        <v>22.90679198552425</v>
       </c>
       <c r="C11">
-        <v>9.822685844207601</v>
+        <v>16.19226300583424</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.72859283938438</v>
+        <v>15.83915651673738</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.587883576663899</v>
+        <v>2.032318340446379</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.55537042917009</v>
+        <v>9.900209621159222</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.23386393827855</v>
+        <v>21.78086599783078</v>
       </c>
       <c r="N11">
-        <v>16.0589894622626</v>
+        <v>10.63130732707525</v>
       </c>
       <c r="O11">
-        <v>17.54678653307923</v>
+        <v>13.90672506195965</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.20527584633053</v>
+        <v>23.18709648082109</v>
       </c>
       <c r="C12">
-        <v>9.919407761494504</v>
+        <v>16.3822299822259</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.7738061135652</v>
+        <v>16.06774800302561</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.587406378324558</v>
+        <v>2.030875485570199</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.53347328202302</v>
+        <v>9.889589427187262</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.31723125611906</v>
+        <v>22.05644240657535</v>
       </c>
       <c r="N12">
-        <v>16.04819743931175</v>
+        <v>10.59923355169136</v>
       </c>
       <c r="O12">
-        <v>17.54450543360879</v>
+        <v>14.00782168003493</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.1756099388432</v>
+        <v>23.12698907743915</v>
       </c>
       <c r="C13">
-        <v>9.898666451966472</v>
+        <v>16.34148149912144</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.76405151700249</v>
+        <v>16.01865484365438</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.587508748560986</v>
+        <v>2.031185824684585</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.53815918650622</v>
+        <v>9.891722056474112</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.2992967885568</v>
+        <v>21.99731910482346</v>
       </c>
       <c r="N13">
-        <v>16.05050979986624</v>
+        <v>10.60611216419959</v>
       </c>
       <c r="O13">
-        <v>17.54495839723851</v>
+        <v>13.9859413100631</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.07839467812786</v>
+        <v>22.92997058705228</v>
       </c>
       <c r="C14">
-        <v>9.830683505875783</v>
+        <v>16.20796578893392</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.73230478921712</v>
+        <v>15.85802528118454</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.587844135618944</v>
+        <v>2.032199451719052</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.55355540719393</v>
+        <v>9.899266644901003</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.24073159393054</v>
+        <v>21.80364027075751</v>
       </c>
       <c r="N14">
-        <v>16.05809623522019</v>
+        <v>10.62865554946575</v>
       </c>
       <c r="O14">
-        <v>17.54658160579817</v>
+        <v>13.9149939569213</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.01848858652268</v>
+        <v>22.80852527798054</v>
       </c>
       <c r="C15">
-        <v>9.788780349340804</v>
+        <v>16.12570191364064</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.71290984574249</v>
+        <v>15.75922864091178</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>3.588050750583745</v>
+        <v>2.032821531981042</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.56307393089424</v>
+        <v>9.904335657778061</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.20480099738649</v>
+        <v>21.68434003345278</v>
       </c>
       <c r="N15">
-        <v>16.06277798483173</v>
+        <v>10.64254860174636</v>
       </c>
       <c r="O15">
-        <v>17.54768799961257</v>
+        <v>13.87185098437553</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.66972887343195</v>
+        <v>22.10079054988151</v>
       </c>
       <c r="C16">
-        <v>9.54465813491357</v>
+        <v>15.64687631048124</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.60257734426995</v>
+        <v>15.18675114465823</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>3.589252908625676</v>
+        <v>2.036405619122367</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.61896524677548</v>
+        <v>9.940027464303439</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.99807303595482</v>
+        <v>20.99039450670186</v>
       </c>
       <c r="N16">
-        <v>16.09014161594659</v>
+        <v>10.72343996200013</v>
       </c>
       <c r="O16">
-        <v>17.55574460040702</v>
+        <v>13.62942638893849</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.45094823049283</v>
+        <v>21.65606089953186</v>
       </c>
       <c r="C17">
-        <v>9.391355968976152</v>
+        <v>15.34650334552578</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.53565207606377</v>
+        <v>14.8298326990907</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.590006609699905</v>
+        <v>2.038622248657263</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>16.65444960524914</v>
+        <v>9.967615056879071</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.87058382596899</v>
+        <v>20.55543061058764</v>
       </c>
       <c r="N17">
-        <v>16.10740566220278</v>
+        <v>10.77418148315041</v>
       </c>
       <c r="O17">
-        <v>17.56221577728838</v>
+        <v>13.48499029189666</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.32335687562668</v>
+        <v>21.396367275524</v>
       </c>
       <c r="C18">
-        <v>9.301888364059019</v>
+        <v>15.17129308434307</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.49745179532529</v>
+        <v>14.62240670826186</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>3.590446092771318</v>
+        <v>2.039904076664523</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>16.67529797506299</v>
+        <v>9.985481859385063</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.79703701026978</v>
+        <v>20.30182297330246</v>
       </c>
       <c r="N18">
-        <v>16.11751109843586</v>
+        <v>10.80376926231981</v>
       </c>
       <c r="O18">
-        <v>17.56649843964932</v>
+        <v>13.4034847271772</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.27985730568351</v>
+        <v>21.30776863312339</v>
       </c>
       <c r="C19">
-        <v>9.271375153941126</v>
+        <v>15.11154958177347</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.48456954312343</v>
+        <v>14.55180600936149</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>3.59059592166172</v>
+        <v>2.040339291180065</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>16.68243211657206</v>
+        <v>9.991865935730818</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.7721004453784</v>
+        <v>20.21536445944342</v>
       </c>
       <c r="N19">
-        <v>16.1209628056473</v>
+        <v>10.81385559998192</v>
       </c>
       <c r="O19">
-        <v>17.56804464130468</v>
+        <v>13.37615761034566</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.47441985771054</v>
+        <v>21.70380607049087</v>
       </c>
       <c r="C20">
-        <v>9.40780920614557</v>
+        <v>15.37873131885049</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.54274633771339</v>
+        <v>14.86804762140051</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.589925758965716</v>
+        <v>2.03838557910061</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>16.65062680498149</v>
+        <v>9.964469337426115</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.88417849553163</v>
+        <v>20.60208741575131</v>
       </c>
       <c r="N20">
-        <v>16.10554970400806</v>
+        <v>10.76873812020419</v>
       </c>
       <c r="O20">
-        <v>17.56146886008924</v>
+        <v>13.50020314786374</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.10702404920988</v>
+        <v>22.98799917855302</v>
       </c>
       <c r="C21">
-        <v>9.850706311657962</v>
+        <v>16.24728290791264</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.74161905547721</v>
+        <v>15.90529056054684</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.587745378333074</v>
+        <v>2.031901475677173</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.54901484051337</v>
+        <v>9.896956781629269</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.25794578381964</v>
+        <v>21.86066713505744</v>
       </c>
       <c r="N21">
-        <v>16.05586065588498</v>
+        <v>10.62201633445042</v>
       </c>
       <c r="O21">
-        <v>17.5460814565438</v>
+        <v>13.93576739090238</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.50445262612414</v>
+        <v>23.79297109753718</v>
       </c>
       <c r="C22">
-        <v>10.12847800425811</v>
+        <v>16.79335203358592</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.87390740428401</v>
+        <v>16.56490754218998</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.586373258984517</v>
+        <v>2.027718466622333</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>16.48653641245682</v>
+        <v>9.872621574993373</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.49971301747989</v>
+        <v>22.65331927997661</v>
       </c>
       <c r="N22">
-        <v>16.02494580645992</v>
+        <v>10.52988854557597</v>
       </c>
       <c r="O22">
-        <v>17.54104059582058</v>
+        <v>14.23449321346779</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.293819626311</v>
+        <v>23.36646336119359</v>
       </c>
       <c r="C23">
-        <v>9.981303056013685</v>
+        <v>16.50386875789262</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.80310547748401</v>
+        <v>16.21449155699997</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.587100760997775</v>
+        <v>2.02994634154931</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.51952146070727</v>
+        <v>9.88370156333176</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.37093355415427</v>
+        <v>22.2329700218416</v>
       </c>
       <c r="N23">
-        <v>16.04130310952661</v>
+        <v>10.57870519856114</v>
       </c>
       <c r="O23">
-        <v>17.54327106023528</v>
+        <v>14.07376789024896</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.46381397266785</v>
+        <v>21.68223298116349</v>
       </c>
       <c r="C24">
-        <v>9.400374844892776</v>
+        <v>15.36416890887076</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.5395381591626</v>
+        <v>14.85077760511213</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.589962292358873</v>
+        <v>2.038492554105998</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>16.65235369791096</v>
+        <v>9.965885289767396</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.87803312256307</v>
+        <v>20.5810049105341</v>
       </c>
       <c r="N24">
-        <v>16.10638822162515</v>
+        <v>10.77119777134532</v>
       </c>
       <c r="O24">
-        <v>17.56180479008318</v>
+        <v>13.4933206426578</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.50179437025569</v>
+        <v>19.71636744398375</v>
       </c>
       <c r="C25">
-        <v>8.724509085361385</v>
+        <v>14.04136949523065</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.26662275854332</v>
+        <v>13.45423366552831</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.593277517731137</v>
+        <v>2.047977389408362</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>16.81239400211089</v>
+        <v>10.12988153488543</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.33838944137122</v>
+        <v>18.6677514490979</v>
       </c>
       <c r="N25">
-        <v>16.18330983130021</v>
+        <v>10.9941496672738</v>
       </c>
       <c r="O25">
-        <v>17.60320891570439</v>
+        <v>12.92714886078753</v>
       </c>
     </row>
   </sheetData>
